--- a/biology/Zoologie/Jacob_Boll/Jacob_Boll.xlsx
+++ b/biology/Zoologie/Jacob_Boll/Jacob_Boll.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Boll, né le 29 mai 1828 à Würenlos (Suisse), mort le 29 septembre 1880 dans le comté de Wilbarger au Texas, est un naturaliste, entomologiste et paléontologue suisse qui se distingua en particulier pour avoir inventorié la faune et la flore du Texas.
 </t>
@@ -511,7 +523,9 @@
           <t>Résumé biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études en Suisse et en Allemagne. Devenu naturaliste, il se consacre à l'étude des petits papillons et entre en contact avec Philipp Christoph Zeller. Vers 1860, il fait avec sa famille un voyage au Texas et rejoint la communauté fouriériste de La Réunion. Il sera de retour en Suisse au bout de quelques années.
 En 1869, il rencontre Louis Agassiz à l'université Harvard, et accepte de retourner au Texas pour y collecter des spécimens d'animaux destiné au Muséum de zoologie comparative de l'université Harvard. De retour en Suisse, il se spécialise dans le recueil d'échantillons et  travaille notamment pour Eduard Dämle et le gouvernement suisse. Des accords similaires seront par la suite conclus avec Agassiz et en 1870 il participe à l'inventaire des insectes de la Nouvelle-Angleterre.
